--- a/OYM/_DocumentosComunes/_PE.xlsx
+++ b/OYM/_DocumentosComunes/_PE.xlsx
@@ -1179,11 +1179,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:I96"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1315,12 +1315,15 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="6"/>
+      <c r="I3">
+        <v>10</v>
+      </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">IF((H3+I3+J3+L3+M3+O3)&lt;70,IF((H3+I3+J3+L3+M3+O3)&gt;59,70,(H3+I3+J3+L3+M3+O3)),(H3+I3+J3+L3+M3+O3))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1337,12 +1340,15 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="6"/>
+      <c r="I4">
+        <v>10</v>
+      </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1359,12 +1365,15 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="6"/>
+      <c r="I5">
+        <v>10</v>
+      </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1381,12 +1390,15 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="6"/>
+      <c r="I6">
+        <v>10</v>
+      </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1447,12 +1459,15 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="6"/>
+      <c r="I9">
+        <v>10</v>
+      </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1491,12 +1506,15 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="6"/>
+      <c r="I11">
+        <v>10</v>
+      </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1535,12 +1553,15 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="6"/>
+      <c r="I13">
+        <v>10</v>
+      </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1623,12 +1644,15 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="6"/>
+      <c r="I17">
+        <v>10</v>
+      </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1645,12 +1669,15 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="6"/>
+      <c r="I18">
+        <v>10</v>
+      </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1667,12 +1694,15 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="6"/>
+      <c r="I19">
+        <v>10</v>
+      </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1689,12 +1719,15 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="6"/>
+      <c r="I20">
+        <v>10</v>
+      </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1821,12 +1854,15 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="6"/>
+      <c r="I26">
+        <v>10</v>
+      </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1843,12 +1879,15 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="6"/>
+      <c r="I27">
+        <v>10</v>
+      </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1887,12 +1926,15 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="6"/>
+      <c r="I29">
+        <v>10</v>
+      </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1931,12 +1973,15 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="6"/>
+      <c r="I31">
+        <v>10</v>
+      </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1953,12 +1998,15 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="6"/>
+      <c r="I32">
+        <v>10</v>
+      </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1975,12 +2023,15 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="6"/>
+      <c r="I33">
+        <v>10</v>
+      </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2019,12 +2070,15 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="6"/>
+      <c r="I35">
+        <v>10</v>
+      </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2041,12 +2095,15 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="6"/>
+      <c r="I36">
+        <v>10</v>
+      </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2063,12 +2120,15 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="6"/>
+      <c r="I37">
+        <v>10</v>
+      </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2085,12 +2145,15 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="6"/>
+      <c r="I38">
+        <v>10</v>
+      </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2107,12 +2170,15 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="6"/>
+      <c r="I39">
+        <v>10</v>
+      </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2129,12 +2195,15 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="6"/>
+      <c r="I40">
+        <v>10</v>
+      </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2195,12 +2264,15 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="6"/>
+      <c r="I43">
+        <v>10</v>
+      </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2239,12 +2311,15 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="6"/>
+      <c r="I45">
+        <v>10</v>
+      </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2261,12 +2336,15 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="6"/>
+      <c r="I46">
+        <v>10</v>
+      </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2283,12 +2361,15 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="6"/>
+      <c r="I47">
+        <v>10</v>
+      </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2305,12 +2386,15 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="6"/>
+      <c r="I48">
+        <v>10</v>
+      </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2327,12 +2411,15 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="6"/>
+      <c r="I49">
+        <v>10</v>
+      </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2349,12 +2436,15 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="6"/>
+      <c r="I50">
+        <v>10</v>
+      </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2371,12 +2461,15 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="6"/>
+      <c r="I51">
+        <v>10</v>
+      </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2393,12 +2486,15 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="6"/>
+      <c r="I52">
+        <v>10</v>
+      </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2437,12 +2533,15 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="6"/>
+      <c r="I54">
+        <v>10</v>
+      </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2459,12 +2558,15 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="6"/>
+      <c r="I55">
+        <v>10</v>
+      </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2481,12 +2583,15 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="6"/>
+      <c r="I56">
+        <v>10</v>
+      </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2525,12 +2630,15 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="6"/>
+      <c r="I58">
+        <v>10</v>
+      </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2547,12 +2655,15 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="6"/>
+      <c r="I59">
+        <v>10</v>
+      </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2569,12 +2680,15 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="6"/>
+      <c r="I60">
+        <v>10</v>
+      </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2591,12 +2705,15 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="6"/>
+      <c r="I61">
+        <v>10</v>
+      </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2613,12 +2730,15 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="6"/>
+      <c r="I62">
+        <v>10</v>
+      </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2635,12 +2755,15 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="6"/>
+      <c r="I63">
+        <v>10</v>
+      </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2679,12 +2802,15 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="6"/>
+      <c r="I65">
+        <v>10</v>
+      </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2701,12 +2827,15 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="6"/>
+      <c r="I66">
+        <v>10</v>
+      </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2727,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N120" si="1">IF((H67+I67+J67+L67+M67+O67)&lt;70,IF((H67+I67+J67+L67+M67+O67)&gt;59,70,(H67+I67+J67+L67+M67+O67)),(H67+I67+J67+L67+M67+O67))</f>
+        <f t="shared" ref="N67:N96" si="1">IF((H67+I67+J67+L67+M67+O67)&lt;70,IF((H67+I67+J67+L67+M67+O67)&gt;59,70,(H67+I67+J67+L67+M67+O67)),(H67+I67+J67+L67+M67+O67))</f>
         <v>0</v>
       </c>
     </row>
@@ -2745,12 +2874,15 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="6"/>
+      <c r="I68">
+        <v>10</v>
+      </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="N68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2789,12 +2921,15 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="6"/>
+      <c r="I70">
+        <v>10</v>
+      </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="N70">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2811,12 +2946,15 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="6"/>
+      <c r="I71">
+        <v>10</v>
+      </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="N71">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2833,12 +2971,15 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="6"/>
+      <c r="I72">
+        <v>10</v>
+      </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="N72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2855,12 +2996,15 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="6"/>
+      <c r="I73">
+        <v>10</v>
+      </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="N73">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2877,12 +3021,15 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="6"/>
+      <c r="I74">
+        <v>10</v>
+      </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="N74">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2899,12 +3046,15 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="6"/>
+      <c r="I75">
+        <v>10</v>
+      </c>
       <c r="K75">
         <v>1</v>
       </c>
       <c r="N75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2921,12 +3071,15 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="6"/>
+      <c r="I76">
+        <v>10</v>
+      </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="N76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2943,12 +3096,15 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="6"/>
+      <c r="I77">
+        <v>10</v>
+      </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="N77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2965,12 +3121,15 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="6"/>
+      <c r="I78">
+        <v>10</v>
+      </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="N78">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2987,12 +3146,15 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="6"/>
+      <c r="I79">
+        <v>10</v>
+      </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="N79">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3009,12 +3171,15 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="6"/>
+      <c r="I80">
+        <v>10</v>
+      </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="N80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3031,12 +3196,15 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="6"/>
+      <c r="I81">
+        <v>10</v>
+      </c>
       <c r="K81">
         <v>1</v>
       </c>
       <c r="N81">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3053,12 +3221,15 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="6"/>
+      <c r="I82">
+        <v>10</v>
+      </c>
       <c r="K82">
         <v>1</v>
       </c>
       <c r="N82">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3075,12 +3246,15 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="6"/>
+      <c r="I83">
+        <v>10</v>
+      </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="N83">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3097,12 +3271,15 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="6"/>
+      <c r="I84">
+        <v>10</v>
+      </c>
       <c r="K84">
         <v>1</v>
       </c>
       <c r="N84">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3141,12 +3318,15 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="6"/>
+      <c r="I86">
+        <v>10</v>
+      </c>
       <c r="K86">
         <v>1</v>
       </c>
       <c r="N86">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3163,12 +3343,15 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="6"/>
+      <c r="I87">
+        <v>10</v>
+      </c>
       <c r="K87">
         <v>1</v>
       </c>
       <c r="N87">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3185,12 +3368,15 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="6"/>
+      <c r="I88">
+        <v>10</v>
+      </c>
       <c r="K88">
         <v>1</v>
       </c>
       <c r="N88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3207,12 +3393,15 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="6"/>
+      <c r="I89">
+        <v>10</v>
+      </c>
       <c r="K89">
         <v>1</v>
       </c>
       <c r="N89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3251,12 +3440,15 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="6"/>
+      <c r="I91">
+        <v>10</v>
+      </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="N91">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3295,12 +3487,15 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="6"/>
+      <c r="I93">
+        <v>10</v>
+      </c>
       <c r="K93">
         <v>1</v>
       </c>
       <c r="N93">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3367,1938 +3562,6 @@
       <c r="N96">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="7"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="6" t="str">
-        <f t="shared" ref="D67:D130" si="2">IF((N97)&gt;=70,10,"")</f>
-        <v/>
-      </c>
-      <c r="E97" s="2" t="str">
-        <f t="shared" ref="E67:E130" si="3">IF((N97)&gt;=70,20,"")</f>
-        <v/>
-      </c>
-      <c r="F97" s="2" t="str">
-        <f t="shared" ref="F67:F130" si="4">IF((N97)&gt;=70,20,"")</f>
-        <v/>
-      </c>
-      <c r="G97" s="6" t="str">
-        <f t="shared" ref="G67:G130" si="5">IF((N97)&gt;=70,IF((N97-50)&gt;50,50,IF((N97-50)&lt;0,0,(N97-50))), "" )</f>
-        <v/>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="N97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="7"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E98" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F98" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G98" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="N98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E99" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F99" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G99" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="N99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="7"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E100" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F100" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G100" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="N100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E101" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F101" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G101" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="N101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E102" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F102" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G102" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="N102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E103" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F103" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G103" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="N103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="7"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E104" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F104" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G104" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-      <c r="N104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E105" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F105" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G105" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="N105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="7"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E106" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F106" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G106" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-      <c r="N106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E107" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F107" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G107" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-      <c r="N107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="7"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E108" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F108" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G108" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K108">
-        <v>1</v>
-      </c>
-      <c r="N108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="7"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E109" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F109" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G109" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="N109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="7"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E110" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F110" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G110" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-      <c r="N110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="7"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E111" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F111" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G111" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-      <c r="N111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E112" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F112" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G112" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-      <c r="N112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E113" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F113" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G113" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-      <c r="N113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E114" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F114" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G114" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-      <c r="N114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E115" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F115" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G115" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-      <c r="N115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E116" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F116" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G116" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
-      <c r="N116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E117" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F117" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G117" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K117">
-        <v>1</v>
-      </c>
-      <c r="N117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="7"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E118" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F118" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G118" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K118">
-        <v>1</v>
-      </c>
-      <c r="N118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E119" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F119" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G119" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K119">
-        <v>1</v>
-      </c>
-      <c r="N119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="7"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E120" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F120" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G120" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K120">
-        <v>1</v>
-      </c>
-      <c r="N120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D121" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E121" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F121" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G121" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D122" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E122" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F122" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G122" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D123" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E123" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F123" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G123" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D124" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E124" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F124" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G124" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D125" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E125" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F125" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G125" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D126" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E126" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F126" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G126" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D127" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E127" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F127" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G127" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D128" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E128" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F128" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G128" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D129" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E129" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F129" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G129" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D130" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E130" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F130" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G130" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D131" s="6" t="str">
-        <f t="shared" ref="D131:D190" si="6">IF((N131)&gt;=70,10,"")</f>
-        <v/>
-      </c>
-      <c r="E131" s="2" t="str">
-        <f t="shared" ref="E131:E190" si="7">IF((N131)&gt;=70,20,"")</f>
-        <v/>
-      </c>
-      <c r="F131" s="2" t="str">
-        <f t="shared" ref="F131:F190" si="8">IF((N131)&gt;=70,20,"")</f>
-        <v/>
-      </c>
-      <c r="G131" s="6" t="str">
-        <f t="shared" ref="G131:G190" si="9">IF((N131)&gt;=70,IF((N131-50)&gt;50,50,IF((N131-50)&lt;0,0,(N131-50))), "" )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D132" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E132" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F132" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G132" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D133" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E133" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F133" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G133" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D134" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E134" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F134" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G134" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D135" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E135" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F135" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G135" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D136" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E136" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F136" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G136" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D137" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E137" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F137" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G137" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D138" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E138" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F138" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G138" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D139" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E139" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F139" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G139" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D140" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E140" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F140" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G140" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D141" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E141" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F141" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G141" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D142" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E142" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F142" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G142" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D143" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E143" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F143" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G143" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D144" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E144" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F144" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G144" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D145" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E145" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F145" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G145" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D146" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E146" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F146" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G146" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D147" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E147" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F147" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G147" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D148" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E148" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F148" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G148" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D149" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E149" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F149" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G149" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D150" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E150" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F150" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G150" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D151" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E151" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F151" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G151" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D152" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E152" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F152" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G152" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D153" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E153" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F153" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G153" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D154" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E154" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F154" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G154" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D155" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E155" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F155" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G155" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D156" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E156" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F156" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G156" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D157" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E157" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F157" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G157" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D158" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E158" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F158" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G158" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D159" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E159" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F159" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G159" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D160" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E160" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F160" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G160" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D161" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E161" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F161" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G161" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D162" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E162" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F162" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G162" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D163" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E163" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F163" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G163" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D164" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E164" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F164" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G164" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D165" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E165" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F165" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G165" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D166" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E166" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F166" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G166" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D167" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E167" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F167" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G167" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D168" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E168" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F168" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G168" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D169" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E169" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F169" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G169" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D170" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E170" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F170" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G170" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D171" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E171" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F171" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G171" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D172" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E172" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F172" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G172" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D173" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E173" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F173" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G173" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D174" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E174" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F174" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G174" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D175" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E175" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F175" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G175" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D176" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E176" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F176" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G176" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D177" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E177" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F177" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G177" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D178" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E178" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F178" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G178" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D179" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E179" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F179" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G179" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D180" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E180" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F180" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G180" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D181" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E181" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F181" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G181" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D182" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E182" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F182" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G182" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D183" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E183" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F183" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G183" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D184" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E184" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F184" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G184" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D185" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E185" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F185" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G185" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D186" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E186" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F186" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G186" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D187" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E187" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F187" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G187" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D188" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E188" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F188" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G188" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D189" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E189" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F189" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G189" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D190" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E190" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F190" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G190" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
       </c>
     </row>
   </sheetData>
